--- a/data/Resume Data - Raw.xlsx
+++ b/data/Resume Data - Raw.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1579" documentId="8_{3DC61385-B8C7-4624-8573-EBA1E3040DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5881761-7224-40FE-9898-5EC9884DB666}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="813" activeTab="3" xr2:uid="{A6B8B943-CC22-4348-8E20-6E4F5B3A8A4C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="813" xr2:uid="{A6B8B943-CC22-4348-8E20-6E4F5B3A8A4C}"/>
   </bookViews>
   <sheets>
     <sheet name="1983 - 98.1" sheetId="6" r:id="rId1"/>
@@ -1951,7 +1951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF59A358-A1B6-41CE-BA6B-DCB590EA97F2}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:D1"/>
     </sheetView>
@@ -2605,8 +2605,8 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21766,7 +21766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EDFDEB2-7AAD-4FC5-9030-A030E28AA8D8}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:D1"/>
     </sheetView>
@@ -22385,8 +22385,8 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
